--- a/CRADLE/assembly/close/整理済み.xlsx
+++ b/CRADLE/assembly/close/整理済み.xlsx
@@ -1328,11 +1328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="31580544"/>
-        <c:axId val="31582080"/>
+        <c:axId val="96485760"/>
+        <c:axId val="96487680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31580544"/>
+        <c:axId val="96485760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -1355,12 +1355,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31582080"/>
+        <c:crossAx val="96487680"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31582080"/>
+        <c:axId val="96487680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1382,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31580544"/>
+        <c:crossAx val="96485760"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
